--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="8640"/>
+    <workbookView windowWidth="22943" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>王韬</t>
+  </si>
+  <si>
+    <t>https://github.com/wangtap</t>
   </si>
   <si>
     <t>鄢秋实</t>
@@ -150,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1213,11 +1216,11 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="49.1666666666667" style="1" customWidth="1"/>
@@ -1801,7 +1804,9 @@
       <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
@@ -1817,7 +1822,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1835,7 +1840,7 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1855,7 +1860,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1875,7 +1880,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1893,7 +1898,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1911,7 +1916,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1929,7 +1934,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2062,6 +2067,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
+    <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9552"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>叶沛颖</t>
+  </si>
+  <si>
+    <t>https://github.com/842884542</t>
   </si>
   <si>
     <t>严宇丛</t>
@@ -153,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -310,6 +313,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -317,20 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -359,6 +362,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,30 +386,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,48 +410,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,13 +470,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,54 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,142 +696,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,10 +1220,10 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="49.1666666666667" style="1" customWidth="1"/>
@@ -1842,7 +1845,9 @@
       <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -1860,7 +1865,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1880,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1898,7 +1903,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1916,7 +1921,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1934,7 +1939,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2068,6 +2073,7 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
     <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
+    <hyperlink ref="C33" r:id="rId3" display="https://github.com/842884542"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9552"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>郑奎</t>
+  </si>
+  <si>
+    <t>https://github.com/ammzsthl/zhengkui.git</t>
   </si>
   <si>
     <t>鲜于春来</t>
@@ -155,8 +158,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -197,7 +200,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,15 +267,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -251,75 +322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +356,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,55 +440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,48 +513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +591,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,37 +664,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,39 +688,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,145 +696,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,11 +1219,11 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="49.1666666666667" style="1" customWidth="1"/>
@@ -1578,7 +1581,9 @@
       <c r="B19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
@@ -1596,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1614,7 +1619,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1632,7 +1637,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1650,7 +1655,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1670,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1690,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1708,7 +1713,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1726,7 +1731,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1744,7 +1749,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1764,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1784,7 +1789,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1802,10 +1807,10 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="10"/>
@@ -1822,7 +1827,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1840,7 +1845,7 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1860,7 +1865,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1880,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1898,7 +1903,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1916,7 +1921,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1934,7 +1939,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2068,6 +2073,7 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
     <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
+    <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl/zhengkui.git"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>郑奎</t>
-  </si>
-  <si>
-    <t>https://github.com/ammzsthl/zhengkui.git</t>
   </si>
   <si>
     <t>鲜于春来</t>
@@ -156,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1581,9 +1578,7 @@
       <c r="B19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="3"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
@@ -1601,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1619,7 +1614,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1637,7 +1632,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1655,7 +1650,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1675,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1695,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1713,7 +1708,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1731,7 +1726,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1749,7 +1744,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1769,7 +1764,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1789,7 +1784,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1807,10 +1802,10 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="10"/>
@@ -1827,7 +1822,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1845,7 +1840,7 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1865,7 +1860,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1885,7 +1880,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1903,7 +1898,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1921,7 +1916,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1939,7 +1934,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2073,7 +2068,7 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
     <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
-    <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl/zhengkui.git"/>
+    <hyperlink ref="C19" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>郑奎</t>
+  </si>
+  <si>
+    <t>https://github.com/ammzsthl/zhengkui.git</t>
   </si>
   <si>
     <t>鲜于春来</t>
@@ -154,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -196,6 +199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -226,13 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -255,6 +259,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -281,21 +292,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -310,9 +306,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,13 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -353,6 +356,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,180 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,15 +671,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -685,6 +679,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,16 +708,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,119 +726,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +888,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,12 +1300,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1314,12 +1320,12 @@
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1334,12 +1340,12 @@
       <c r="F6" s="11"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1356,12 +1362,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1376,12 +1382,12 @@
       <c r="F8" s="11"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="13" t="s">
@@ -1396,12 +1402,12 @@
       <c r="F9" s="11"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1416,12 +1422,12 @@
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1434,12 +1440,12 @@
       <c r="F11" s="11"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1452,12 +1458,12 @@
       <c r="F12" s="11"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1470,12 +1476,12 @@
       <c r="F13" s="11"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="16" t="s">
@@ -1490,12 +1496,12 @@
       <c r="F14" s="11"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1510,12 +1516,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1528,12 +1534,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
@@ -1546,12 +1552,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
@@ -1564,12 +1570,12 @@
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="16" t="s">
@@ -1578,25 +1584,27 @@
       <c r="B19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1604,17 +1612,17 @@
       <c r="F20" s="11"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1622,17 +1630,17 @@
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1640,17 +1648,17 @@
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1658,39 +1666,39 @@
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1698,17 +1706,17 @@
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1716,17 +1724,17 @@
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1734,17 +1742,17 @@
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1752,19 +1760,19 @@
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1772,19 +1780,19 @@
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1792,37 +1800,37 @@
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1830,17 +1838,17 @@
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1848,19 +1856,19 @@
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1868,19 +1876,19 @@
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1888,17 +1896,17 @@
       <c r="F35" s="11"/>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1906,17 +1914,17 @@
       <c r="F36" s="11"/>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1924,17 +1932,17 @@
       <c r="F37" s="11"/>
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1942,12 +1950,12 @@
       <c r="F38" s="11"/>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="113">
@@ -2068,7 +2076,7 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
     <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
-    <hyperlink ref="C19" r:id="rId3"/>
+    <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl/zhengkui.git" tooltip="https://github.com/ammzsthl/zhengkui.git"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>王森浩</t>
+  </si>
+  <si>
+    <t>https://github.com/NotTwoChen</t>
   </si>
   <si>
     <t>副班长</t>
@@ -157,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -208,6 +211,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,21 +279,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -245,40 +286,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,17 +302,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,20 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -356,12 +359,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,37 +443,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,134 +543,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -572,6 +575,28 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -592,55 +617,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,7 +657,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +706,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -696,149 +743,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,28 +898,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
@@ -881,10 +937,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,10 +949,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -958,6 +1014,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1213,17 +1274,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1295,17 +1355,17 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1314,18 +1374,18 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1334,636 +1394,636 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>12</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>18</v>
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="C19" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>29</v>
+      <c r="A24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>34</v>
+      <c r="A29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="C31" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>40</v>
+      <c r="A34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="112">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="C6:D6"/>
@@ -2072,11 +2132,13 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A1:N3"/>
+    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
     <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
     <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl/zhengkui.git" tooltip="https://github.com/ammzsthl/zhengkui.git"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://github.com/NotTwoChen"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>叶沛颖</t>
+  </si>
+  <si>
+    <t>https://github.com/842884542</t>
   </si>
   <si>
     <t>严宇丛</t>
@@ -316,20 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -337,6 +326,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -365,6 +368,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,30 +404,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,48 +416,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,6 +476,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,7 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,48 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,115 +758,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,13 +875,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,11 +1017,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1274,16 +1272,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1912,7 +1911,9 @@
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
@@ -1930,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1950,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1968,7 +1969,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1986,7 +1987,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2004,7 +2005,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2139,6 +2140,7 @@
     <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
     <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl/zhengkui.git" tooltip="https://github.com/ammzsthl/zhengkui.git"/>
     <hyperlink ref="C6" r:id="rId4" display="https://github.com/NotTwoChen"/>
+    <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>范文杰</t>
+  </si>
+  <si>
+    <t>https://github.com/veryhairy/HomeWork</t>
   </si>
   <si>
     <t>王韬</t>
@@ -168,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -219,6 +222,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -228,20 +307,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -249,25 +314,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,60 +351,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -376,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,11 +658,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,17 +712,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,41 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,16 +775,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,115 +793,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1880,7 +1883,9 @@
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
@@ -1896,10 +1901,10 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="14"/>
@@ -1916,7 +1921,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1934,10 +1939,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -1956,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -1978,7 +1983,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1996,7 +2001,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2014,7 +2019,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2032,7 +2037,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2168,6 +2173,7 @@
     <hyperlink ref="C6" r:id="rId4" display="https://github.com/NotTwoChen"/>
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
+    <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy/HomeWork"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27735" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>牛宜生</t>
+  </si>
+  <si>
+    <t>https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject</t>
   </si>
   <si>
     <t>曾繁昌</t>
@@ -172,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -336,6 +339,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -343,20 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -379,6 +382,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,61 +412,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,13 +490,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,91 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,6 +1046,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1298,17 +1306,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1505,7 +1512,9 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
@@ -1521,7 +1530,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1539,7 +1548,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1557,7 +1566,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1577,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1597,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1615,7 +1624,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1633,7 +1642,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1651,7 +1660,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1671,10 +1680,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
@@ -1693,7 +1702,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1711,7 +1720,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1729,7 +1738,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1747,7 +1756,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1767,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1787,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1805,7 +1814,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1823,7 +1832,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1841,7 +1850,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1861,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1881,10 +1890,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="14"/>
@@ -1901,10 +1910,10 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="14"/>
@@ -1921,7 +1930,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1939,10 +1948,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -1961,10 +1970,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -1983,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2001,7 +2010,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2019,7 +2028,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2037,7 +2046,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2174,6 +2183,7 @@
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy/HomeWork"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="10350"/>
+    <workbookView windowWidth="22943" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -139,7 +139,10 @@
     <t>王韬</t>
   </si>
   <si>
-    <t>https://github.com/wangtap</t>
+    <t>https://github.com/wangtap/JaveS</t>
+  </si>
+  <si>
+    <t>https://github.com/wangtap/JaveS/tree/master/HomeWork</t>
   </si>
   <si>
     <t>鄢秋实</t>
@@ -174,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -232,6 +235,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -255,9 +289,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,31 +312,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,57 +357,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -382,24 +385,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,19 +427,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,67 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,48 +566,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +689,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -714,50 +761,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +781,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +988,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1046,11 +1052,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1306,19 +1307,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="49.1666666666667" style="1" customWidth="1"/>
@@ -1394,12 +1396,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1414,12 +1416,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1436,12 +1438,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1458,12 +1460,12 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1478,12 +1480,12 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="19" t="s">
@@ -1498,12 +1500,12 @@
       <c r="F9" s="15"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1520,12 +1522,12 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1538,12 +1540,12 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1556,12 +1558,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1574,12 +1576,12 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="22" t="s">
@@ -1594,12 +1596,12 @@
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1614,12 +1616,12 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1632,12 +1634,12 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
@@ -1650,12 +1652,12 @@
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
@@ -1668,12 +1670,12 @@
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="22" t="s">
@@ -1690,12 +1692,12 @@
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
@@ -1710,12 +1712,12 @@
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
@@ -1728,12 +1730,12 @@
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
@@ -1746,12 +1748,12 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
@@ -1764,12 +1766,12 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="22" t="s">
@@ -1784,12 +1786,12 @@
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
@@ -1804,12 +1806,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
@@ -1822,12 +1824,12 @@
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
@@ -1840,12 +1842,12 @@
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
@@ -1858,12 +1860,12 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="22" t="s">
@@ -1878,12 +1880,12 @@
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
@@ -1900,12 +1902,12 @@
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
@@ -1916,21 +1918,23 @@
         <v>41</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1938,61 +1942,61 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2000,17 +2004,17 @@
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2018,17 +2022,17 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2036,17 +2040,17 @@
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2054,12 +2058,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2177,13 +2181,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
-    <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap"/>
+    <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap/JaveS" tooltip="https://github.com/wangtap/JaveS"/>
     <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl/zhengkui.git" tooltip="https://github.com/ammzsthl/zhengkui.git"/>
     <hyperlink ref="C6" r:id="rId4" display="https://github.com/NotTwoChen"/>
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9552"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>刘鹏</t>
+  </si>
+  <si>
+    <t>https://github.com/Nicetrylp</t>
+  </si>
+  <si>
+    <t>https://github.com/Nicetrylp/project</t>
   </si>
   <si>
     <t>蔡林</t>
@@ -177,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -229,6 +235,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -243,14 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -260,100 +357,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,6 +391,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,6 +433,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -433,6 +475,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,96 +548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +670,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -683,22 +743,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,45 +767,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,16 +787,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,119 +805,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +985,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1316,11 +1325,11 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="49.1666666666667" style="1" customWidth="1"/>
@@ -1396,12 +1405,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1416,12 +1425,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1438,12 +1447,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1460,12 +1469,12 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1480,12 +1489,12 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="19" t="s">
@@ -1500,12 +1509,12 @@
       <c r="F9" s="15"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1522,12 +1531,12 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1540,12 +1549,12 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1558,12 +1567,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1576,12 +1585,12 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="22" t="s">
@@ -1590,25 +1599,29 @@
       <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1616,17 +1629,17 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1634,17 +1647,17 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1652,17 +1665,17 @@
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1670,41 +1683,41 @@
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1712,17 +1725,17 @@
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1730,17 +1743,17 @@
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1748,17 +1761,17 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1766,39 +1779,39 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1806,17 +1819,17 @@
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1824,17 +1837,17 @@
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1842,17 +1855,17 @@
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1860,19 +1873,19 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1880,61 +1893,61 @@
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="26" t="s">
-        <v>42</v>
+      <c r="E31" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1942,61 +1955,61 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2004,17 +2017,17 @@
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2022,17 +2035,17 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2040,17 +2053,17 @@
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2058,12 +2071,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2189,6 +2202,8 @@
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
     <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>范文杰</t>
+  </si>
+  <si>
+    <t>https://github.com/veryhairy</t>
   </si>
   <si>
     <t>https://github.com/veryhairy/HomeWork</t>
@@ -183,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -235,9 +238,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,28 +359,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -280,90 +367,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -391,6 +394,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,150 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,30 +674,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -705,21 +684,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,7 +707,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +746,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -775,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,133 +790,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1911,7 +1914,9 @@
         <v>41</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
@@ -1925,14 +1930,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1947,7 +1952,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1965,10 +1970,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -1987,10 +1992,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2009,7 +2014,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2027,7 +2032,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2045,7 +2050,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2063,7 +2068,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2199,11 +2204,12 @@
     <hyperlink ref="C6" r:id="rId4" display="https://github.com/NotTwoChen"/>
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
-    <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy/HomeWork"/>
+    <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy" tooltip="https://github.com/veryhairy"/>
     <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
     <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
+    <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>https://github.com/NotTwoChen</t>
+  </si>
+  <si>
+    <t>https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject</t>
   </si>
   <si>
     <t>副班长</t>
@@ -186,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -238,13 +241,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,8 +263,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,21 +355,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,60 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -394,13 +397,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,18 +535,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,25 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,96 +578,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,30 +677,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -713,25 +701,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,16 +736,40 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,16 +793,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,115 +811,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,6 +978,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -988,9 +994,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,6 +1067,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1319,17 +1327,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1446,7 +1453,9 @@
         <v>8</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -1459,13 +1468,13 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="14"/>
@@ -1481,10 +1490,10 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1500,18 +1509,18 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="29"/>
@@ -1521,13 +1530,13 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="18" t="s">
         <v>17</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
@@ -1544,7 +1553,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1562,7 +1571,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1580,7 +1589,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1596,18 +1605,18 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
+      <c r="C14" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="23" t="s">
-        <v>23</v>
+      <c r="E14" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1621,10 +1630,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1642,7 +1651,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1660,7 +1669,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1678,7 +1687,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1694,14 +1703,14 @@
       <c r="N18" s="29"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>28</v>
+      <c r="A19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
@@ -1717,10 +1726,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1738,7 +1747,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1756,7 +1765,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1774,7 +1783,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1790,11 +1799,11 @@
       <c r="N23" s="29"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>34</v>
+      <c r="A24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1811,10 +1820,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1832,7 +1841,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1850,7 +1859,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1868,7 +1877,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1884,11 +1893,11 @@
       <c r="N28" s="29"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>39</v>
+      <c r="A29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1905,17 +1914,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="18" t="s">
         <v>41</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1930,14 +1939,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="18" t="s">
         <v>44</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1952,7 +1961,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1970,10 +1979,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="18" t="s">
         <v>48</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -1988,14 +1997,14 @@
       <c r="N33" s="29"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>49</v>
+      <c r="A34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2011,10 +2020,10 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2032,7 +2041,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2050,7 +2059,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2068,7 +2077,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2210,6 +2219,7 @@
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
+    <hyperlink ref="E6" r:id="rId13" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -103,7 +103,10 @@
     <t>郑奎</t>
   </si>
   <si>
-    <t>https://github.com/ammzsthl/zhengkui.git</t>
+    <t>https://github.com/ammzsthl</t>
+  </si>
+  <si>
+    <t>https://github.com/ammzsthl/zhengkui</t>
   </si>
   <si>
     <t>鲜于春来</t>
@@ -186,8 +189,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -238,13 +241,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,6 +263,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -291,6 +295,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -326,14 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,163 +397,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,21 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -770,6 +758,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -778,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,16 +793,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,115 +811,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,7 +1332,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1704,7 +1707,9 @@
         <v>29</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
@@ -1720,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1738,7 +1743,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1756,7 +1761,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1774,7 +1779,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1794,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1814,7 +1819,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1832,7 +1837,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1850,7 +1855,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1868,7 +1873,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1888,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1908,14 +1913,14 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="18" t="s">
         <v>41</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1930,14 +1935,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1952,7 +1957,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1970,10 +1975,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -1992,10 +1997,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2014,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2032,7 +2037,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2050,7 +2055,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2068,7 +2073,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2200,7 +2205,7 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://github.com/learnen"/>
     <hyperlink ref="C31" r:id="rId2" display="https://github.com/wangtap/JaveS" tooltip="https://github.com/wangtap/JaveS"/>
-    <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl/zhengkui.git" tooltip="https://github.com/ammzsthl/zhengkui.git"/>
+    <hyperlink ref="C19" r:id="rId3" display="https://github.com/ammzsthl" tooltip="https://github.com/ammzsthl"/>
     <hyperlink ref="C6" r:id="rId4" display="https://github.com/NotTwoChen"/>
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
@@ -2210,6 +2215,7 @@
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
+    <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>https://github.com/develope1989</t>
+  </si>
+  <si>
+    <t>https://github.com/develope1989/GitHubJava/tree/master/homeworkJavaSe</t>
   </si>
   <si>
     <t>刘鑫</t>
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -240,8 +243,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,14 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -271,20 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -293,11 +364,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,73 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -397,19 +400,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,163 +532,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,21 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -717,20 +705,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,21 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -773,6 +750,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,11 +1070,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1327,16 +1325,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2007,7 +2006,9 @@
         <v>51</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -2023,7 +2024,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2041,7 +2042,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2059,7 +2060,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2077,7 +2078,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2220,6 +2221,7 @@
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E6" r:id="rId13" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
+    <hyperlink ref="E34" r:id="rId14" display="https://github.com/develope1989/GitHubJava/tree/master/homeworkJavaSe"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>陈宏港</t>
+  </si>
+  <si>
+    <t>https://github.com/chenhonggangNZ/quitWorkSpace/tree/master/Day16_URLConnection</t>
   </si>
 </sst>
 </file>
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -240,8 +243,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,14 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -272,14 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,17 +358,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,73 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -397,19 +400,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,163 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +679,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,15 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -711,17 +714,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +765,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,16 +796,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,115 +814,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,11 +1070,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1327,16 +1325,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2081,7 +2080,9 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
@@ -2220,6 +2221,7 @@
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E6" r:id="rId13" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
+    <hyperlink ref="E38" r:id="rId14" display="https://github.com/chenhonggangNZ/quitWorkSpace/tree/master/Day16_URLConnection"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="21330" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>https://github.com/learnen</t>
+  </si>
+  <si>
+    <t>https://github.com/learnen/HomeWork/tree/master/HomeWork</t>
   </si>
   <si>
     <t>袁营营</t>
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -240,13 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,6 +251,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -263,6 +266,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -271,69 +340,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,30 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -517,6 +520,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,30 +557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +727,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -743,36 +776,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,16 +796,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,115 +814,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,6 +984,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,9 +997,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1471,7 +1474,9 @@
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -1487,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1503,18 +1508,18 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="29"/>
@@ -1524,13 +1529,13 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
@@ -1547,7 +1552,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1565,7 +1570,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1583,7 +1588,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1599,18 +1604,18 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>21</v>
+      <c r="A14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="23" t="s">
-        <v>23</v>
+      <c r="E14" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1624,10 +1629,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1645,7 +1650,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1663,7 +1668,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1681,7 +1686,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1697,18 +1702,18 @@
       <c r="N18" s="29"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>28</v>
+      <c r="A19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="23" t="s">
-        <v>30</v>
+      <c r="E19" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1722,10 +1727,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1743,7 +1748,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1761,7 +1766,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1779,7 +1784,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1795,11 +1800,11 @@
       <c r="N23" s="29"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>35</v>
+      <c r="A24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1816,10 +1821,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1837,7 +1842,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1855,7 +1860,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1873,7 +1878,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1889,11 +1894,11 @@
       <c r="N28" s="29"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>40</v>
+      <c r="A29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1910,17 +1915,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1935,14 +1940,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1957,7 +1962,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1975,10 +1980,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -1993,14 +1998,14 @@
       <c r="N33" s="29"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>50</v>
+      <c r="A34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2016,10 +2021,10 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2037,7 +2042,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2055,7 +2060,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2073,7 +2078,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2216,6 +2221,7 @@
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
+    <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="8640"/>
+    <workbookView windowWidth="19095" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>杜大文</t>
+  </si>
+  <si>
+    <t>https://github.com/Sole-Memory-ddw/Practice</t>
   </si>
   <si>
     <t>赖瑞</t>
@@ -194,8 +197,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -243,6 +246,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,13 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -266,6 +292,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -273,26 +307,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,53 +376,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -400,187 +403,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,25 +707,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,21 +732,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +755,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -784,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,16 +799,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,115 +817,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1670,7 +1673,9 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
@@ -1686,7 +1691,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1706,14 +1711,14 @@
         <v>14</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1730,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1748,7 +1753,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1766,7 +1771,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1784,7 +1789,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1804,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1824,7 +1829,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1842,7 +1847,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1860,7 +1865,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1878,7 +1883,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1898,7 +1903,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1918,14 +1923,14 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1940,14 +1945,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1962,7 +1967,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1980,10 +1985,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2002,10 +2007,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2024,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2042,7 +2047,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2060,7 +2065,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2078,7 +2083,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2222,6 +2227,7 @@
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9630"/>
+    <workbookView windowWidth="27015" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>袁营营</t>
+  </si>
+  <si>
+    <t>https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork</t>
   </si>
   <si>
     <t>组长</t>
@@ -195,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -403,6 +406,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,6 +430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,6 +454,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,6 +484,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,12 +502,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -499,12 +538,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -517,73 +568,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,10 +790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +802,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,8 +1340,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,7 +1500,9 @@
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
@@ -1512,10 +1517,10 @@
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1532,13 +1537,13 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
@@ -1555,7 +1560,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1573,7 +1578,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1591,7 +1596,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1608,17 +1613,17 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1632,10 +1637,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1653,7 +1658,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1671,10 +1676,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
@@ -1691,7 +1696,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1708,17 +1713,17 @@
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1732,10 +1737,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1753,7 +1758,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1771,7 +1776,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1789,7 +1794,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1806,10 +1811,10 @@
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1826,10 +1831,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1847,7 +1852,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1865,7 +1870,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1883,7 +1888,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1900,10 +1905,10 @@
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1920,17 +1925,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1945,14 +1950,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1967,7 +1972,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1985,10 +1990,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2004,13 +2009,13 @@
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2026,10 +2031,10 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2047,7 +2052,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2065,7 +2070,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2083,7 +2088,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2228,6 +2233,7 @@
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
+    <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="8655"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>徐超</t>
+  </si>
+  <si>
+    <t>https://github.com/bestbelief</t>
+  </si>
+  <si>
+    <t>https://github.com/bestbelief/-</t>
   </si>
   <si>
     <t>胡凯</t>
@@ -199,9 +205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1340,8 +1346,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1854,9 +1860,13 @@
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
@@ -1870,7 +1880,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1888,7 +1898,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1908,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1928,14 +1938,14 @@
         <v>17</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1950,14 +1960,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1972,7 +1982,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1990,10 +2000,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2012,10 +2022,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2034,7 +2044,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2052,7 +2062,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2070,7 +2080,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2088,7 +2098,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2234,6 +2244,8 @@
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
+    <hyperlink ref="E26" r:id="rId17" display="https://github.com/bestbelief/-"/>
+    <hyperlink ref="C26" r:id="rId18" display="https://github.com/bestbelief"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="8655"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>https://github.com/NotTwoChen</t>
+  </si>
+  <si>
+    <t>https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject</t>
   </si>
   <si>
     <t>副班长</t>
@@ -199,9 +202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -363,6 +366,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -370,20 +387,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -406,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,145 +793,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,10 +990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,6 +1079,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1331,17 +1339,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1458,7 +1465,9 @@
         <v>8</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -1471,17 +1480,17 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="19" t="s">
-        <v>12</v>
+      <c r="E7" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
@@ -1495,13 +1504,13 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
         <v>14</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="14"/>
@@ -1517,10 +1526,10 @@
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1537,13 +1546,13 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
@@ -1560,7 +1569,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1578,7 +1587,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1596,7 +1605,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1613,17 +1622,17 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="19" t="s">
-        <v>25</v>
+      <c r="E14" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1637,10 +1646,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1658,7 +1667,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1676,10 +1685,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="18" t="s">
         <v>29</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
@@ -1696,7 +1705,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1713,17 +1722,17 @@
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="19" t="s">
-        <v>33</v>
+      <c r="E19" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1737,10 +1746,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1758,7 +1767,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1776,7 +1785,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1794,7 +1803,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1811,10 +1820,10 @@
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1831,10 +1840,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1852,7 +1861,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1870,7 +1879,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1888,7 +1897,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1905,10 +1914,10 @@
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1925,17 +1934,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1950,14 +1959,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="18" t="s">
         <v>48</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1972,7 +1981,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1990,10 +1999,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="18" t="s">
         <v>52</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2009,13 +2018,13 @@
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2031,10 +2040,10 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2052,7 +2061,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2070,7 +2079,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2088,7 +2097,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2234,6 +2243,7 @@
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
+    <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="8655"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>https://github.com/NotTwoChen</t>
+  </si>
+  <si>
+    <t>https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject</t>
   </si>
   <si>
     <t>副班长</t>
@@ -198,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -250,7 +253,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,125 +381,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -406,13 +409,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,169 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,17 +688,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,16 +707,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,6 +738,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -749,39 +785,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,145 +793,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,10 +990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,6 +1079,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1331,17 +1339,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1458,7 +1465,9 @@
         <v>8</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -1471,17 +1480,17 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="19" t="s">
-        <v>12</v>
+      <c r="E7" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
@@ -1495,13 +1504,13 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
         <v>14</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="14"/>
@@ -1517,10 +1526,10 @@
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1537,13 +1546,13 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
@@ -1560,7 +1569,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1578,7 +1587,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1596,7 +1605,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1613,17 +1622,17 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="19" t="s">
-        <v>25</v>
+      <c r="E14" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1637,10 +1646,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1658,7 +1667,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1676,10 +1685,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="18" t="s">
         <v>29</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
@@ -1696,7 +1705,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1713,17 +1722,17 @@
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="19" t="s">
-        <v>33</v>
+      <c r="E19" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1737,10 +1746,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1758,7 +1767,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1776,7 +1785,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1794,7 +1803,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1811,10 +1820,10 @@
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1831,10 +1840,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1852,7 +1861,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1870,7 +1879,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1888,7 +1897,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1905,10 +1914,10 @@
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1925,17 +1934,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1950,14 +1959,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="18" t="s">
         <v>48</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1972,7 +1981,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1990,10 +1999,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="18" t="s">
         <v>52</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2009,13 +2018,13 @@
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2031,10 +2040,10 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2052,7 +2061,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2070,7 +2079,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2088,7 +2097,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2234,6 +2243,7 @@
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
+    <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>鲜于春来</t>
+  </si>
+  <si>
+    <t>https://github.com/xianyuchunlai</t>
+  </si>
+  <si>
+    <t>https://github.com/xianyuchunlai/T1214</t>
   </si>
   <si>
     <t>陈凯成</t>
@@ -203,8 +209,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -253,7 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +291,83 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,90 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,22 +393,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -409,79 +415,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,103 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,11 +703,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +757,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -759,32 +791,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -793,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,16 +811,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,115 +829,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,8 +1353,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1751,9 +1757,13 @@
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
@@ -1767,7 +1777,7 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1785,7 +1795,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1803,7 +1813,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1823,7 +1833,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1843,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1861,7 +1871,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1879,7 +1889,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1897,7 +1907,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1917,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1937,14 +1947,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1959,14 +1969,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1981,7 +1991,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1999,10 +2009,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2021,10 +2031,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2043,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2061,7 +2071,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2079,7 +2089,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2097,7 +2107,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2244,6 +2254,8 @@
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
+    <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
+    <hyperlink ref="E20" r:id="rId19" display="https://github.com/xianyuchunlai/T1214"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>陈凯成</t>
+  </si>
+  <si>
+    <t>https://github.com/xiaocainiao07</t>
+  </si>
+  <si>
+    <t>https://github.com/xiaocainiao07/homework</t>
   </si>
   <si>
     <t>李耀</t>
@@ -201,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -253,14 +259,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,8 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,8 +304,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,11 +380,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,68 +393,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -409,6 +415,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,7 +523,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,151 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,16 +719,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +750,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -746,42 +769,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,16 +811,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,13 +829,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,100 +844,100 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,8 +1353,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1769,9 +1775,13 @@
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
@@ -1785,7 +1795,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1803,7 +1813,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1823,7 +1833,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1843,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1861,7 +1871,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1879,7 +1889,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1897,7 +1907,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1917,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1937,14 +1947,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1959,14 +1969,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1981,7 +1991,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1999,10 +2009,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2021,10 +2031,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2043,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2061,7 +2071,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2079,7 +2089,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2097,7 +2107,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2244,6 +2254,8 @@
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
+    <hyperlink ref="E21" r:id="rId18" display="https://github.com/xiaocainiao07/homework"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://github.com/xiaocainiao07"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>陈凯成</t>
-  </si>
-  <si>
-    <t>https://github.com/xiaocainiao07</t>
-  </si>
-  <si>
-    <t>https://github.com/xiaocainiao07/homework</t>
   </si>
   <si>
     <t>李耀</t>
@@ -207,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -259,7 +253,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,125 +381,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -415,175 +409,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,17 +688,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,16 +707,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +738,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -758,39 +785,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,16 +805,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,13 +823,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,100 +838,100 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1775,13 +1769,9 @@
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="E21" s="14"/>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
@@ -1795,7 +1785,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1813,7 +1803,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1833,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1853,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1871,7 +1861,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1889,7 +1879,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1907,7 +1897,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1927,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1947,14 +1937,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1969,14 +1959,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1991,7 +1981,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2009,10 +1999,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2031,10 +2021,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2053,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2071,7 +2061,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2089,7 +2079,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2107,7 +2097,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2254,8 +2244,6 @@
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
-    <hyperlink ref="E21" r:id="rId18" display="https://github.com/xiaocainiao07/homework"/>
-    <hyperlink ref="C21" r:id="rId19" display="https://github.com/xiaocainiao07"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>陈凯成</t>
+  </si>
+  <si>
+    <t>https://github.com/xiaocainiao07</t>
+  </si>
+  <si>
+    <t>https://github.com/xiaocainiao07/homework</t>
   </si>
   <si>
     <t>李耀</t>
@@ -207,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -259,7 +265,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,82 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,37 +399,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -415,13 +421,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,19 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,31 +565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,97 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,15 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,6 +715,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -729,6 +735,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,15 +771,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -772,22 +784,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,16 +817,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,115 +835,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1779,9 +1785,13 @@
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
@@ -1795,7 +1805,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1813,7 +1823,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1833,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1853,7 +1863,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1871,7 +1881,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1889,7 +1899,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1907,7 +1917,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1927,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1947,14 +1957,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1969,14 +1979,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1991,7 +2001,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2009,10 +2019,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2031,10 +2041,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2053,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2071,7 +2081,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2089,7 +2099,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2107,7 +2117,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2256,6 +2266,8 @@
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
     <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
     <hyperlink ref="E20" r:id="rId19" display="https://github.com/xianyuchunlai/T1214"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>刘鑫</t>
+  </si>
+  <si>
+    <t>https://github.com/lxsme</t>
+  </si>
+  <si>
+    <t>https://github.com/lxsme/Test/tree/master/Day16_Test</t>
   </si>
   <si>
     <t>冯文</t>
@@ -213,8 +219,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -265,6 +271,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -279,6 +299,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -287,29 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -319,59 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,21 +405,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -421,187 +427,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,6 +706,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,23 +739,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,24 +803,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -805,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +823,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,11 +1097,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1351,16 +1352,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2065,9 +2067,13 @@
       <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
@@ -2081,7 +2087,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2099,7 +2105,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2117,7 +2123,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2268,6 +2274,8 @@
     <hyperlink ref="E20" r:id="rId19" display="https://github.com/xianyuchunlai/T1214"/>
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
+    <hyperlink ref="E35" r:id="rId22" display="https://github.com/lxsme/Test/tree/master/Day16_Test"/>
+    <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>李晓楠</t>
+  </si>
+  <si>
+    <t>https://github.com/Big-Dick-Nan</t>
+  </si>
+  <si>
+    <t>https://github.com/Big-Dick-Nan/HomeWork</t>
   </si>
   <si>
     <t>陈朝雄</t>
@@ -219,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -271,21 +277,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,30 +322,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,18 +360,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,50 +398,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -427,49 +433,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,133 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,21 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -739,26 +730,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,6 +776,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -811,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,16 +829,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,119 +847,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,10 +1035,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,8 +1370,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1441,12 +1450,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1461,12 +1470,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1485,12 +1494,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1509,12 +1518,12 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1531,12 +1540,12 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="20" t="s">
@@ -1551,12 +1560,12 @@
       <c r="F9" s="15"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1573,12 +1582,12 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1591,12 +1600,12 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1609,12 +1618,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1627,12 +1636,12 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="23" t="s">
@@ -1651,12 +1660,12 @@
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1671,12 +1680,12 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1689,12 +1698,12 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
@@ -1709,12 +1718,12 @@
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
@@ -1727,12 +1736,12 @@
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="23" t="s">
@@ -1751,12 +1760,12 @@
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
@@ -1775,12 +1784,12 @@
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
@@ -1797,12 +1806,12 @@
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
@@ -1815,12 +1824,12 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
@@ -1833,12 +1842,12 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="23" t="s">
@@ -1847,25 +1856,29 @@
       <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="F24" s="26"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1873,17 +1886,17 @@
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1891,17 +1904,17 @@
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1909,17 +1922,17 @@
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1927,19 +1940,19 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1947,63 +1960,63 @@
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="27" t="s">
-        <v>51</v>
+      <c r="E30" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="27" t="s">
-        <v>54</v>
+      <c r="E31" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2011,83 +2024,83 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2095,17 +2108,17 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2113,17 +2126,17 @@
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2131,12 +2144,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2276,6 +2289,8 @@
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
     <hyperlink ref="E35" r:id="rId22" display="https://github.com/lxsme/Test/tree/master/Day16_Test"/>
     <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://github.com/Big-Dick-Nan/HomeWork"/>
+    <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27765" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>赖瑞</t>
+  </si>
+  <si>
+    <t>https://github.com/Larry21gram/JavaSE_Code</t>
+  </si>
+  <si>
+    <t>https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src</t>
   </si>
   <si>
     <t>郑奎</t>
@@ -226,8 +232,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -277,15 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,15 +291,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,48 +350,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,20 +362,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,6 +380,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -433,6 +439,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,6 +481,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,31 +523,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,48 +596,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +718,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,37 +791,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,39 +815,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -817,145 +823,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,8 +1376,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1730,9 +1736,13 @@
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
@@ -1748,14 +1758,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1772,14 +1782,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1794,14 +1804,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1816,7 +1826,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1834,7 +1844,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1854,14 +1864,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -1878,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1896,7 +1906,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1914,7 +1924,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1932,7 +1942,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1952,7 +1962,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1972,14 +1982,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1994,14 +2004,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2016,7 +2026,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2034,10 +2044,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2056,10 +2066,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2078,14 +2088,14 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2100,7 +2110,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2118,7 +2128,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2136,7 +2146,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2291,6 +2301,8 @@
     <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
     <hyperlink ref="E24" r:id="rId24" display="https://github.com/Big-Dick-Nan/HomeWork"/>
     <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
+    <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
+    <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13665"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>李想</t>
+  </si>
+  <si>
+    <t>https://github.com/DmeoL</t>
+  </si>
+  <si>
+    <t>https://github.com/DmeoL/LXHomeWork</t>
   </si>
   <si>
     <t>组员</t>
@@ -231,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -283,7 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,8 +318,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,33 +372,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,6 +385,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,37 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -439,6 +445,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,66 +517,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,48 +602,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +724,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,15 +759,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,6 +778,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -772,30 +813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -804,17 +821,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -823,10 +829,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,16 +841,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,115 +859,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,7 +1383,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1560,9 +1566,13 @@
       <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
@@ -1575,13 +1585,13 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
@@ -1598,7 +1608,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1616,7 +1626,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1634,7 +1644,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1654,14 +1664,14 @@
         <v>16</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1675,10 +1685,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1696,7 +1706,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1714,10 +1724,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
@@ -1734,14 +1744,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1758,14 +1768,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1779,17 +1789,17 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1804,14 +1814,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1826,7 +1836,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1844,7 +1854,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1864,14 +1874,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -1885,10 +1895,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1906,7 +1916,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1924,7 +1934,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1942,7 +1952,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1962,7 +1972,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1979,17 +1989,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2004,14 +2014,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2026,7 +2036,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2044,10 +2054,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2066,10 +2076,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2085,17 +2095,17 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2110,7 +2120,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2128,7 +2138,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2146,7 +2156,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2303,6 +2313,8 @@
     <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
     <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
     <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
+    <hyperlink ref="C9" r:id="rId28" display="https://github.com/DmeoL"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="17895" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>杨潇</t>
+  </si>
+  <si>
+    <t>https://github.com/13207161778</t>
+  </si>
+  <si>
+    <t>https://github.com/13207161778/JBCC/tree/master/SE</t>
   </si>
   <si>
     <t>范文杰</t>
@@ -237,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -296,15 +302,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -312,15 +310,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,16 +339,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,10 +371,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,38 +400,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,6 +451,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,25 +511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,48 +608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +730,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -743,7 +788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,17 +808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,39 +827,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -829,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,133 +847,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1974,9 +1980,13 @@
       <c r="B29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
@@ -1992,14 +2002,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2014,14 +2024,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2036,7 +2046,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2054,10 +2064,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2076,10 +2086,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2098,14 +2108,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2120,7 +2130,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2138,7 +2148,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2156,7 +2166,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2315,6 +2325,8 @@
     <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
     <hyperlink ref="C9" r:id="rId28" display="https://github.com/DmeoL"/>
     <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
+    <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17895" windowHeight="8085"/>
+    <workbookView windowWidth="27735" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>牛宜生</t>
+  </si>
+  <si>
+    <t>https://github.com/OnTheRightWay</t>
   </si>
   <si>
     <t>https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject</t>
@@ -243,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -302,7 +305,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -310,22 +321,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,17 +343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,24 +374,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,24 +389,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,187 +454,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,11 +733,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,6 +787,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -769,45 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -816,17 +830,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -835,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,133 +850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,12 +1050,15 @@
     <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,9 +1066,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1124,6 +1127,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1379,17 +1387,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1596,11 +1603,13 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -1614,7 +1623,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1632,7 +1641,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1650,7 +1659,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1666,18 +1675,18 @@
       <c r="N13" s="30"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>26</v>
+      <c r="B14" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1694,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1712,7 +1721,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1730,10 +1739,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
@@ -1750,14 +1759,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1770,18 +1779,18 @@
       <c r="N18" s="30"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>37</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1798,14 +1807,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1820,14 +1829,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1842,7 +1851,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1860,7 +1869,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1876,22 +1885,22 @@
       <c r="N23" s="30"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>47</v>
+      <c r="B24" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="30"/>
@@ -1904,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1922,7 +1931,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1940,7 +1949,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1958,7 +1967,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1974,18 +1983,18 @@
       <c r="N28" s="30"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>54</v>
+      <c r="B29" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="28" t="s">
-        <v>56</v>
+      <c r="E29" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2002,14 +2011,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="24" t="s">
         <v>58</v>
       </c>
+      <c r="C30" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="28" t="s">
-        <v>59</v>
+      <c r="E30" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2024,14 +2033,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="28" t="s">
-        <v>62</v>
+      <c r="E31" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2046,7 +2055,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2064,10 +2073,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2082,14 +2091,14 @@
       <c r="N33" s="30"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>67</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2108,14 +2117,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2130,7 +2139,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2148,7 +2157,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2166,7 +2175,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2303,7 +2312,7 @@
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy" tooltip="https://github.com/veryhairy"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay" tooltip="https://github.com/OnTheRightWay"/>
     <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
@@ -2327,6 +2336,7 @@
     <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
     <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
     <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
+    <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -115,7 +115,7 @@
     <t>https://github.com/Larry21gram/JavaSE_Code</t>
   </si>
   <si>
-    <t>https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src</t>
+    <t>https://github.com/Larry21gram/JavaSE_Code/commit/c1e1e18b3944ae1817a9aadbc81b622973d6ba25</t>
   </si>
   <si>
     <t>郑奎</t>
@@ -231,9 +231,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -283,7 +283,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +299,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,17 +336,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,37 +353,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,6 +371,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,26 +387,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,6 +439,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,150 +596,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,30 +719,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -753,21 +729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,7 +752,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,6 +791,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -823,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,133 +835,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+      <selection activeCell="C4" sqref="C4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2301,8 +2301,8 @@
     <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
     <hyperlink ref="E24" r:id="rId24" display="https://github.com/Big-Dick-Nan/HomeWork"/>
     <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
-    <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
-    <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
+    <hyperlink ref="C18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code"/>
+    <hyperlink ref="E18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code/commit/c1e1e18b3944ae1817a9aadbc81b622973d6ba25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>曾繁昌</t>
+  </si>
+  <si>
+    <t>https://github.com/zfc103489252</t>
+  </si>
+  <si>
+    <t>https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl</t>
   </si>
   <si>
     <t>熊志祥</t>
@@ -246,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -454,6 +460,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,6 +484,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,6 +508,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,6 +538,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,12 +556,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -550,12 +592,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,73 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,133 +856,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,11 +1133,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1387,16 +1388,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1625,9 +1627,13 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -1641,7 +1647,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1659,7 +1665,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1679,14 +1685,14 @@
         <v>16</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1703,7 +1709,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1721,7 +1727,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1739,10 +1745,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
@@ -1759,14 +1765,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1783,14 +1789,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1807,14 +1813,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1829,14 +1835,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1851,7 +1857,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1869,7 +1875,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1889,14 +1895,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1913,7 +1919,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1931,7 +1937,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1949,7 +1955,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1967,7 +1973,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1987,14 +1993,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2011,14 +2017,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2033,14 +2039,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2055,7 +2061,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2073,10 +2079,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2095,10 +2101,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2117,14 +2123,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2139,7 +2145,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2157,7 +2163,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2175,7 +2181,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2337,6 +2343,8 @@
     <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
     <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
     <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="E11" r:id="rId33" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
+    <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27015" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>袁营营</t>
+  </si>
+  <si>
+    <t>https://github.com/FineDreams</t>
   </si>
   <si>
     <t>https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork</t>
@@ -252,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -300,36 +303,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,6 +360,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,27 +421,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -460,30 +463,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,12 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,24 +637,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,102 +644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,16 +742,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -764,21 +767,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -789,6 +777,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,21 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -844,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,16 +859,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,115 +877,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,6 +1050,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,9 +1060,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1398,7 +1401,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1563,8 +1566,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
       <c r="I8" s="29"/>
@@ -1575,22 +1580,22 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="30"/>
@@ -1600,17 +1605,17 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="23" t="s">
         <v>22</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
@@ -1625,14 +1630,14 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
@@ -1647,7 +1652,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1665,7 +1670,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1682,17 +1687,17 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1706,10 +1711,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1727,7 +1732,7 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1745,10 +1750,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
@@ -1765,14 +1770,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1786,17 +1791,17 @@
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="23" t="s">
         <v>40</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1810,17 +1815,17 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1835,14 +1840,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1857,7 +1862,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1875,7 +1880,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1892,17 +1897,17 @@
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1916,10 +1921,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1937,7 +1942,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1955,7 +1960,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1973,7 +1978,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1990,17 +1995,17 @@
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2014,17 +2019,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="23" t="s">
         <v>61</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2039,14 +2044,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2061,7 +2066,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2079,10 +2084,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2098,13 +2103,13 @@
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="23" t="s">
         <v>70</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2120,17 +2125,17 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2145,7 +2150,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2163,7 +2168,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2181,7 +2186,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2326,25 +2331,26 @@
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
     <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
-    <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
-    <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
-    <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
-    <hyperlink ref="E20" r:id="rId19" display="https://github.com/xianyuchunlai/T1214"/>
-    <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
-    <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
-    <hyperlink ref="E35" r:id="rId22" display="https://github.com/lxsme/Test/tree/master/Day16_Test"/>
-    <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
-    <hyperlink ref="E24" r:id="rId24" display="https://github.com/Big-Dick-Nan/HomeWork"/>
-    <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
-    <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
-    <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
-    <hyperlink ref="C9" r:id="rId28" display="https://github.com/DmeoL"/>
-    <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
-    <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
-    <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
-    <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
-    <hyperlink ref="E11" r:id="rId33" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
-    <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
+    <hyperlink ref="E6" r:id="rId16" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
+    <hyperlink ref="C20" r:id="rId17" display="https://github.com/xianyuchunlai"/>
+    <hyperlink ref="E20" r:id="rId18" display="https://github.com/xianyuchunlai/T1214"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://github.com/xiaocainiao07"/>
+    <hyperlink ref="E21" r:id="rId20" display="https://github.com/xiaocainiao07/homework"/>
+    <hyperlink ref="E35" r:id="rId21" display="https://github.com/lxsme/Test/tree/master/Day16_Test"/>
+    <hyperlink ref="C35" r:id="rId22" display="https://github.com/lxsme"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://github.com/Big-Dick-Nan/HomeWork"/>
+    <hyperlink ref="C24" r:id="rId24" display="https://github.com/Big-Dick-Nan"/>
+    <hyperlink ref="E18" r:id="rId25" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
+    <hyperlink ref="C18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code"/>
+    <hyperlink ref="C9" r:id="rId27" display="https://github.com/DmeoL"/>
+    <hyperlink ref="E9" r:id="rId28" display="https://github.com/DmeoL/LXHomeWork"/>
+    <hyperlink ref="C29" r:id="rId29" display="https://github.com/13207161778"/>
+    <hyperlink ref="E29" r:id="rId30" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
+    <hyperlink ref="E10" r:id="rId31" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="E11" r:id="rId32" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
+    <hyperlink ref="C11" r:id="rId33" display="https://github.com/zfc103489252"/>
+    <hyperlink ref="E8" r:id="rId34" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
+    <hyperlink ref="C8" r:id="rId35" display="https://github.com/FineDreams"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>徐超</t>
+  </si>
+  <si>
+    <t>https://github.com/bestbelief/</t>
+  </si>
+  <si>
+    <t>https://github.com/bestbelief/-</t>
   </si>
   <si>
     <t>胡凯</t>
@@ -253,9 +259,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -417,7 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -425,6 +430,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -460,30 +466,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,12 +628,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,24 +640,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,102 +647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,10 +850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,16 +862,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,10 +883,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,88 +907,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1939,9 +1945,13 @@
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
@@ -1955,7 +1965,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1973,7 +1983,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1993,14 +2003,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2017,14 +2027,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2039,14 +2049,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2061,7 +2071,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2079,10 +2089,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2101,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2123,14 +2133,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2145,7 +2155,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2163,7 +2173,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2181,7 +2191,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2345,6 +2355,8 @@
     <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
     <hyperlink ref="E11" r:id="rId33" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
     <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
+    <hyperlink ref="E26" r:id="rId35" display="https://github.com/bestbelief/-"/>
+    <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>陈朝雄</t>
+  </si>
+  <si>
+    <t>https://github.com/chenzhaoxiong</t>
+  </si>
+  <si>
+    <t>https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment</t>
   </si>
   <si>
     <t>徐超</t>
@@ -258,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -316,29 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -370,6 +353,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -393,6 +399,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,36 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +472,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -478,6 +490,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,7 +520,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,55 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,85 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,26 +805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -842,6 +828,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -850,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,133 +868,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,6 +1145,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1394,12 +1405,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -1927,9 +1937,13 @@
       <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
@@ -1943,14 +1957,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -1965,7 +1979,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1983,7 +1997,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2003,14 +2017,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2027,14 +2041,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2049,14 +2063,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2071,7 +2085,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2089,10 +2103,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2111,10 +2125,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2133,14 +2147,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2155,7 +2169,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2173,7 +2187,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2191,7 +2205,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2357,6 +2371,8 @@
     <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
     <hyperlink ref="E26" r:id="rId35" display="https://github.com/bestbelief/-"/>
     <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
+    <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
+    <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -70,33 +70,18 @@
     <t>李想</t>
   </si>
   <si>
-    <t>https://github.com/DmeoL</t>
-  </si>
-  <si>
-    <t>https://github.com/DmeoL/LXHomeWork</t>
-  </si>
-  <si>
     <t>组员</t>
   </si>
   <si>
     <t>牛宜生</t>
   </si>
   <si>
-    <t>https://github.com/OnTheRightWay</t>
-  </si>
-  <si>
     <t>https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject</t>
   </si>
   <si>
     <t>曾繁昌</t>
   </si>
   <si>
-    <t>https://github.com/zfc103489252</t>
-  </si>
-  <si>
-    <t>https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl</t>
-  </si>
-  <si>
     <t>熊志祥</t>
   </si>
   <si>
@@ -127,12 +112,6 @@
     <t>赖瑞</t>
   </si>
   <si>
-    <t>https://github.com/Larry21gram/JavaSE_Code</t>
-  </si>
-  <si>
-    <t>https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src</t>
-  </si>
-  <si>
     <t>郑奎</t>
   </si>
   <si>
@@ -169,45 +148,28 @@
     <t>李晓楠</t>
   </si>
   <si>
-    <t>https://github.com/Big-Dick-Nan</t>
-  </si>
-  <si>
-    <t>https://github.com/Big-Dick-Nan/HomeWork</t>
-  </si>
-  <si>
     <t>陈朝雄</t>
   </si>
   <si>
-    <t>https://github.com/chenzhaoxiong</t>
-  </si>
-  <si>
-    <t>https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment</t>
-  </si>
-  <si>
     <t>徐超</t>
   </si>
   <si>
-    <t>https://github.com/bestbelief/</t>
-  </si>
-  <si>
-    <t>https://github.com/bestbelief/-</t>
-  </si>
-  <si>
     <t>胡凯</t>
   </si>
   <si>
+    <t xml:space="preserve">
+https://github.com/</t>
+  </si>
+  <si>
+    <t>https://github.com/lanou123456/homeDemo</t>
+  </si>
+  <si>
     <t>王晨光</t>
   </si>
   <si>
     <t>杨潇</t>
   </si>
   <si>
-    <t>https://github.com/13207161778</t>
-  </si>
-  <si>
-    <t>https://github.com/13207161778/JBCC/tree/master/SE</t>
-  </si>
-  <si>
     <t>范文杰</t>
   </si>
   <si>
@@ -242,12 +204,6 @@
   </si>
   <si>
     <t>刘鑫</t>
-  </si>
-  <si>
-    <t>https://github.com/lxsme</t>
-  </si>
-  <si>
-    <t>https://github.com/lxsme/Test/tree/master/Day16_Test</t>
   </si>
   <si>
     <t>冯文</t>
@@ -264,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -322,6 +278,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -353,6 +317,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -377,75 +401,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,12 +428,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,18 +590,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,145 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,26 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,6 +737,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -801,30 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,6 +780,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -856,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,16 +824,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,119 +842,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,6 +1015,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,22 +1027,16 @@
     <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1413,8 +1366,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1493,12 +1446,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1513,12 +1466,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1537,12 +1490,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1555,18 +1508,18 @@
         <v>12</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1583,87 +1536,77 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1671,17 +1614,17 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1689,43 +1632,43 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>29</v>
+      <c r="B14" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1733,17 +1676,17 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1751,129 +1694,125 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>40</v>
+      <c r="B19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="18" t="s">
-        <v>41</v>
+      <c r="E19" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1881,17 +1820,17 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1899,105 +1838,97 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="B24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="26" t="s">
-        <v>52</v>
-      </c>
+      <c r="E24" s="26"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>57</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="E26" s="14"/>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2005,87 +1936,83 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="B29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="24" t="s">
-        <v>63</v>
-      </c>
+      <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="24" t="s">
-        <v>66</v>
+      <c r="E30" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="24" t="s">
-        <v>69</v>
+      <c r="E31" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2093,83 +2020,79 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>74</v>
+      <c r="B34" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>76</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="18" t="s">
-        <v>77</v>
-      </c>
+      <c r="E35" s="14"/>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2177,17 +2100,17 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2195,17 +2118,17 @@
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2213,12 +2136,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2342,7 +2265,7 @@
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy" tooltip="https://github.com/veryhairy"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay" tooltip="https://github.com/OnTheRightWay"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
     <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
@@ -2356,23 +2279,7 @@
     <hyperlink ref="E20" r:id="rId19" display="https://github.com/xianyuchunlai/T1214"/>
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
-    <hyperlink ref="E35" r:id="rId22" display="https://github.com/lxsme/Test/tree/master/Day16_Test"/>
-    <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
-    <hyperlink ref="E24" r:id="rId24" display="https://github.com/Big-Dick-Nan/HomeWork"/>
-    <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
-    <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
-    <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
-    <hyperlink ref="C9" r:id="rId28" display="https://github.com/DmeoL"/>
-    <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
-    <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
-    <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
-    <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
-    <hyperlink ref="E11" r:id="rId33" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
-    <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
-    <hyperlink ref="E26" r:id="rId35" display="https://github.com/bestbelief/-"/>
-    <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
-    <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
-    <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
+    <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="19095" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>杜大文</t>
+  </si>
+  <si>
+    <t>https://github.com/Sole-Memory-ddw</t>
   </si>
   <si>
     <t>https://github.com/Sole-Memory-ddw/Practice</t>
@@ -220,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -278,6 +281,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -285,127 +409,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -428,6 +431,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,168 +612,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,21 +711,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -761,22 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,6 +781,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -812,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,16 +827,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,115 +845,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,11 +1101,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1358,16 +1356,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1706,11 +1705,13 @@
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -1724,7 +1725,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1744,14 +1745,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1768,14 +1769,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1790,14 +1791,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1812,7 +1813,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1830,7 +1831,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1850,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1870,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1888,7 +1889,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1906,14 +1907,14 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
@@ -1928,7 +1929,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1948,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1968,14 +1969,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1990,14 +1991,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2012,7 +2013,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2030,10 +2031,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2052,10 +2053,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2074,7 +2075,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2092,7 +2093,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2110,7 +2111,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2128,7 +2129,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2272,7 +2273,7 @@
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw" tooltip="https://github.com/Sole-Memory-ddw"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
     <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
@@ -2280,6 +2281,7 @@
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
     <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
+    <hyperlink ref="E17" r:id="rId23" display="https://github.com/Sole-Memory-ddw/Practice"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9630"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>杜大文</t>
-  </si>
-  <si>
-    <t>https://github.com/Sole-Memory-ddw</t>
   </si>
   <si>
     <t>https://github.com/Sole-Memory-ddw/Practice</t>
@@ -223,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -281,6 +278,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -335,6 +340,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -379,36 +400,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -431,6 +428,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,18 +500,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -569,18 +602,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -588,30 +609,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,6 +708,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -749,17 +761,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,26 +798,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -815,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,6 +1098,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1356,17 +1358,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1705,13 +1706,11 @@
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -1725,7 +1724,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1745,14 +1744,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>34</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1769,14 +1768,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1791,14 +1790,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1813,7 +1812,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1831,7 +1830,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1851,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1871,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1889,7 +1888,7 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1907,14 +1906,14 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
@@ -1929,7 +1928,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1949,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1969,14 +1968,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1991,14 +1990,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2013,7 +2012,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2031,10 +2030,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2053,10 +2052,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2075,7 +2074,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2093,7 +2092,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2111,7 +2110,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2129,7 +2128,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2273,7 +2272,7 @@
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw" tooltip="https://github.com/Sole-Memory-ddw"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
     <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
@@ -2281,7 +2280,6 @@
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
     <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
-    <hyperlink ref="E17" r:id="rId23" display="https://github.com/Sole-Memory-ddw/Practice"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -70,18 +70,33 @@
     <t>李想</t>
   </si>
   <si>
+    <t>https://github.com/DmeoL</t>
+  </si>
+  <si>
+    <t>https://github.com/DmeoL/LXHomeWork</t>
+  </si>
+  <si>
     <t>组员</t>
   </si>
   <si>
     <t>牛宜生</t>
   </si>
   <si>
+    <t>https://github.com/OnTheRightWay</t>
+  </si>
+  <si>
     <t>https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject</t>
   </si>
   <si>
     <t>曾繁昌</t>
   </si>
   <si>
+    <t>https://github.com/zfc103489252</t>
+  </si>
+  <si>
+    <t>https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl</t>
+  </si>
+  <si>
     <t>熊志祥</t>
   </si>
   <si>
@@ -112,6 +127,12 @@
     <t>赖瑞</t>
   </si>
   <si>
+    <t>https://github.com/Larry21gram/JavaSE_Code</t>
+  </si>
+  <si>
+    <t>https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src</t>
+  </si>
+  <si>
     <t>郑奎</t>
   </si>
   <si>
@@ -148,28 +169,45 @@
     <t>李晓楠</t>
   </si>
   <si>
+    <t>https://github.com/Big-Dick-Nan</t>
+  </si>
+  <si>
+    <t>https://github.com/Big-Dick-Nan/HomeWork</t>
+  </si>
+  <si>
     <t>陈朝雄</t>
   </si>
   <si>
+    <t>https://github.com/chenzhaoxiong</t>
+  </si>
+  <si>
+    <t>https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment</t>
+  </si>
+  <si>
     <t>徐超</t>
   </si>
   <si>
+    <t>https://github.com/bestbelief/</t>
+  </si>
+  <si>
+    <t>https://github.com/bestbelief/-</t>
+  </si>
+  <si>
     <t>胡凯</t>
   </si>
   <si>
-    <t xml:space="preserve">
-https://github.com/</t>
-  </si>
-  <si>
-    <t>https://github.com/lanou123456/homeDemo</t>
-  </si>
-  <si>
     <t>王晨光</t>
   </si>
   <si>
     <t>杨潇</t>
   </si>
   <si>
+    <t>https://github.com/13207161778</t>
+  </si>
+  <si>
+    <t>https://github.com/13207161778/JBCC/tree/master/SE</t>
+  </si>
+  <si>
     <t>范文杰</t>
   </si>
   <si>
@@ -204,6 +242,12 @@
   </si>
   <si>
     <t>刘鑫</t>
+  </si>
+  <si>
+    <t>https://github.com/lxsme</t>
+  </si>
+  <si>
+    <t>https://github.com/lxsme/Test/tree/master/Day16_Test</t>
   </si>
   <si>
     <t>冯文</t>
@@ -220,9 +264,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -278,14 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -317,66 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -401,7 +377,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +472,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,120 +646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,54 +653,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,17 +751,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,15 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -757,6 +801,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,30 +848,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -812,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,16 +868,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,119 +886,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,28 +1059,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1366,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1446,12 +1493,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1466,12 +1513,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1490,12 +1537,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1508,18 +1555,18 @@
         <v>12</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1536,77 +1583,87 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1614,17 +1671,17 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1632,43 +1689,43 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>24</v>
+      <c r="B14" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1676,17 +1733,17 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1694,125 +1751,129 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>33</v>
+      <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="20" t="s">
-        <v>34</v>
+      <c r="E19" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1820,17 +1881,17 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1838,97 +1899,105 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="B24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1936,83 +2005,87 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="B29" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="20" t="s">
-        <v>53</v>
+      <c r="E30" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="20" t="s">
-        <v>56</v>
+      <c r="E31" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2020,79 +2093,83 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>61</v>
+      <c r="B34" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2100,17 +2177,17 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2118,17 +2195,17 @@
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2136,12 +2213,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2265,7 +2342,7 @@
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy" tooltip="https://github.com/veryhairy"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay" tooltip="https://github.com/OnTheRightWay"/>
     <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
@@ -2279,7 +2356,23 @@
     <hyperlink ref="E20" r:id="rId19" display="https://github.com/xianyuchunlai/T1214"/>
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
-    <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
+    <hyperlink ref="E35" r:id="rId22" display="https://github.com/lxsme/Test/tree/master/Day16_Test"/>
+    <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://github.com/Big-Dick-Nan/HomeWork"/>
+    <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
+    <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
+    <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
+    <hyperlink ref="C9" r:id="rId28" display="https://github.com/DmeoL"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
+    <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
+    <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="E11" r:id="rId33" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
+    <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
+    <hyperlink ref="E26" r:id="rId35" display="https://github.com/bestbelief/-"/>
+    <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
+    <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
+    <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19095" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>https://github.com/Sole-Memory-ddw/Practice</t>
+  </si>
+  <si>
+    <t>https://github.com/Sole-Memory-ddw</t>
   </si>
   <si>
     <t>赖瑞</t>
@@ -264,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -315,16 +318,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,14 +361,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,41 +379,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,6 +415,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,10 +440,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,6 +475,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,6 +529,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,102 +632,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,41 +754,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +774,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,6 +836,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -856,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,137 +871,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1078,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,11 +1151,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1405,16 +1406,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1493,12 +1495,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1513,12 +1515,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1537,12 +1539,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1561,12 +1563,12 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1583,12 +1585,12 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="20" t="s">
@@ -1607,12 +1609,12 @@
       <c r="F9" s="15"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1631,12 +1633,12 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1653,12 +1655,12 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1671,12 +1673,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1689,12 +1691,12 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="25" t="s">
@@ -1713,12 +1715,12 @@
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1733,12 +1735,12 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1751,129 +1753,131 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1881,17 +1885,17 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1899,87 +1903,87 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="E24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1987,17 +1991,17 @@
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2005,87 +2009,87 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2093,83 +2097,83 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2177,17 +2181,17 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2195,17 +2199,17 @@
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2213,12 +2217,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2349,7 +2353,7 @@
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice" tooltip="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
     <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
@@ -2373,6 +2377,7 @@
     <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
     <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
     <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
+    <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9630"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>沈世伟</t>
+  </si>
+  <si>
+    <t>https://github.com/shen-shi-wei</t>
+  </si>
+  <si>
+    <t>https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE</t>
   </si>
   <si>
     <t>陈宏港</t>
@@ -268,9 +274,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,39 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +357,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,25 +413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,6 +429,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -475,132 +481,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,24 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,30 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -789,6 +771,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +808,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -836,21 +857,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -859,10 +865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,16 +877,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,119 +895,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,9 +1084,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1495,12 +1498,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1515,12 +1518,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1539,12 +1542,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1563,12 +1566,12 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1585,12 +1588,12 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="20" t="s">
@@ -1609,12 +1612,12 @@
       <c r="F9" s="15"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1633,12 +1636,12 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1655,12 +1658,12 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1673,12 +1676,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1691,12 +1694,12 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="25" t="s">
@@ -1715,12 +1718,12 @@
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1735,12 +1738,12 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1753,19 +1756,19 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
@@ -1775,12 +1778,12 @@
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
@@ -1797,12 +1800,12 @@
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="25" t="s">
@@ -1821,12 +1824,12 @@
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
@@ -1845,12 +1848,12 @@
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
@@ -1867,12 +1870,12 @@
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
@@ -1885,12 +1888,12 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
@@ -1903,12 +1906,12 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="25" t="s">
@@ -1921,18 +1924,18 @@
         <v>52</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
@@ -1951,12 +1954,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
@@ -1973,12 +1976,12 @@
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
@@ -1991,12 +1994,12 @@
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
@@ -2009,12 +2012,12 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="25" t="s">
@@ -2033,12 +2036,12 @@
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
@@ -2057,12 +2060,12 @@
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
@@ -2079,12 +2082,12 @@
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
@@ -2097,12 +2100,12 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
@@ -2117,12 +2120,12 @@
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="25" t="s">
@@ -2139,12 +2142,12 @@
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
@@ -2163,12 +2166,12 @@
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
@@ -2181,35 +2184,39 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2217,12 +2224,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2378,6 +2385,8 @@
     <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
     <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
     <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
+    <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
+    <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>冯文</t>
+  </si>
+  <si>
+    <t>https://github.com/joker-f</t>
+  </si>
+  <si>
+    <t>https://github.com/joker-f/Bzt/tree/master/homework</t>
   </si>
   <si>
     <t>沈世伟</t>
@@ -331,29 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -377,22 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,22 +370,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +431,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -481,6 +487,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,25 +535,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,12 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,48 +644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,30 +791,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -857,6 +839,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -865,10 +871,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,16 +883,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,115 +901,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,7 +1425,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:F37"/>
+      <selection activeCell="G31" sqref="G31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2178,9 +2184,13 @@
       <c r="B36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -2194,14 +2204,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2216,7 +2226,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2387,6 +2397,8 @@
     <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
     <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
     <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
+    <hyperlink ref="E36" r:id="rId42" display="https://github.com/joker-f/Bzt/tree/master/homework"/>
+    <hyperlink ref="C36" r:id="rId43" display="https://github.com/joker-f"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>许寒</t>
+  </si>
+  <si>
+    <t>https://github.com/xuhan961228</t>
+  </si>
+  <si>
+    <t>https://github.com/xuhan961228/xuhan2.git</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -280,9 +286,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1424,8 +1430,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1756,9 +1762,13 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -1772,14 +1782,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
@@ -1794,14 +1804,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1818,14 +1828,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1842,14 +1852,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1864,14 +1874,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1886,7 +1896,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1904,7 +1914,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1924,14 +1934,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1948,14 +1958,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -1970,14 +1980,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -1992,7 +2002,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2010,7 +2020,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2030,14 +2040,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2054,14 +2064,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2076,14 +2086,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2098,7 +2108,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2116,10 +2126,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2138,10 +2148,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2160,14 +2170,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2182,14 +2192,14 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
@@ -2204,14 +2214,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2226,7 +2236,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2399,6 +2409,8 @@
     <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
     <hyperlink ref="E36" r:id="rId42" display="https://github.com/joker-f/Bzt/tree/master/homework"/>
     <hyperlink ref="C36" r:id="rId43" display="https://github.com/joker-f"/>
+    <hyperlink ref="C16" r:id="rId44" display="https://github.com/xuhan961228"/>
+    <hyperlink ref="E16" r:id="rId45" display="https://github.com/xuhan961228/xuhan2.git"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -70,18 +70,33 @@
     <t>李想</t>
   </si>
   <si>
+    <t>https://github.com/DmeoL</t>
+  </si>
+  <si>
+    <t>https://github.com/DmeoL/LXHomeWork</t>
+  </si>
+  <si>
     <t>组员</t>
   </si>
   <si>
     <t>牛宜生</t>
   </si>
   <si>
+    <t>https://github.com/OnTheRightWay</t>
+  </si>
+  <si>
     <t>https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject</t>
   </si>
   <si>
     <t>曾繁昌</t>
   </si>
   <si>
+    <t>https://github.com/zfc103489252</t>
+  </si>
+  <si>
+    <t>https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl</t>
+  </si>
+  <si>
     <t>熊志祥</t>
   </si>
   <si>
@@ -103,15 +118,30 @@
     <t>许寒</t>
   </si>
   <si>
+    <t>https://github.com/xuhan961228</t>
+  </si>
+  <si>
+    <t>https://github.com/xuhan961228/xuhan2.git</t>
+  </si>
+  <si>
     <t>杜大文</t>
   </si>
   <si>
     <t>https://github.com/Sole-Memory-ddw/Practice</t>
   </si>
   <si>
+    <t>https://github.com/Sole-Memory-ddw</t>
+  </si>
+  <si>
     <t>赖瑞</t>
   </si>
   <si>
+    <t>https://github.com/Larry21gram/JavaSE_Code</t>
+  </si>
+  <si>
+    <t>https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src</t>
+  </si>
+  <si>
     <t>郑奎</t>
   </si>
   <si>
@@ -148,17 +178,34 @@
     <t>李晓楠</t>
   </si>
   <si>
+    <t>https://github.com/Big-Dick-Nan</t>
+  </si>
+  <si>
+    <t>https://github.com/Big-Dick-Nan/HomeWork</t>
+  </si>
+  <si>
     <t>陈朝雄</t>
   </si>
   <si>
+    <t>https://github.com/chenzhaoxiong</t>
+  </si>
+  <si>
+    <t>https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment</t>
+  </si>
+  <si>
     <t>徐超</t>
   </si>
   <si>
+    <t>https://github.com/bestbelief/</t>
+  </si>
+  <si>
+    <t>https://github.com/bestbelief/-</t>
+  </si>
+  <si>
     <t>胡凯</t>
   </si>
   <si>
-    <t xml:space="preserve">
-https://github.com/</t>
+    <t>https://github.com/</t>
   </si>
   <si>
     <t>https://github.com/lanou123456/homeDemo</t>
@@ -170,6 +217,12 @@
     <t>杨潇</t>
   </si>
   <si>
+    <t>https://github.com/13207161778</t>
+  </si>
+  <si>
+    <t>https://github.com/13207161778/JBCC/tree/master/SE</t>
+  </si>
+  <si>
     <t>范文杰</t>
   </si>
   <si>
@@ -206,10 +259,28 @@
     <t>刘鑫</t>
   </si>
   <si>
+    <t>https://github.com/lxsme</t>
+  </si>
+  <si>
+    <t>https://github.com/lxsme/Test/tree/master/Day16_Test</t>
+  </si>
+  <si>
     <t>冯文</t>
   </si>
   <si>
+    <t>https://github.com/joker-f</t>
+  </si>
+  <si>
+    <t>https://github.com/joker-f/Bzt/tree/master/homework</t>
+  </si>
+  <si>
     <t>沈世伟</t>
+  </si>
+  <si>
+    <t>https://github.com/shen-shi-wei</t>
+  </si>
+  <si>
+    <t>https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE</t>
   </si>
   <si>
     <t>陈宏港</t>
@@ -220,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -272,7 +343,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +374,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,25 +424,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,36 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -379,29 +472,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +499,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,37 +637,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,133 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,45 +779,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -761,22 +793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +831,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -812,10 +883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,16 +895,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,119 +913,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,28 +1086,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1366,7 +1440,7 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
@@ -1446,12 +1520,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1466,12 +1540,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1490,12 +1564,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1508,18 +1582,18 @@
         <v>12</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1536,77 +1610,87 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1614,17 +1698,17 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1632,43 +1716,43 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>24</v>
+      <c r="B14" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1676,143 +1760,153 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>33</v>
+      <c r="B19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="20" t="s">
-        <v>34</v>
+      <c r="E19" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1820,17 +1914,17 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1838,97 +1932,109 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="B24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="18" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1936,83 +2042,87 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="B29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="20" t="s">
-        <v>53</v>
+      <c r="E30" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="20" t="s">
-        <v>56</v>
+      <c r="E31" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2020,115 +2130,127 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>61</v>
+      <c r="B34" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2136,12 +2258,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2265,21 +2387,46 @@
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy" tooltip="https://github.com/veryhairy"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay" tooltip="https://github.com/OnTheRightWay"/>
     <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice" tooltip="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
     <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
     <hyperlink ref="E20" r:id="rId19" display="https://github.com/xianyuchunlai/T1214"/>
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
-    <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
+    <hyperlink ref="E35" r:id="rId22" display="https://github.com/lxsme/Test/tree/master/Day16_Test"/>
+    <hyperlink ref="C35" r:id="rId23" display="https://github.com/lxsme"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://github.com/Big-Dick-Nan/HomeWork"/>
+    <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
+    <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
+    <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
+    <hyperlink ref="C9" r:id="rId28" display="https://github.com/DmeoL"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
+    <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
+    <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="E11" r:id="rId33" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
+    <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
+    <hyperlink ref="E26" r:id="rId35" display="https://github.com/bestbelief/-"/>
+    <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
+    <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
+    <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
+    <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
+    <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
+    <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
+    <hyperlink ref="E36" r:id="rId42" display="https://github.com/joker-f/Bzt/tree/master/homework"/>
+    <hyperlink ref="C36" r:id="rId43" display="https://github.com/joker-f"/>
+    <hyperlink ref="C16" r:id="rId44" display="https://github.com/xuhan961228"/>
+    <hyperlink ref="E16" r:id="rId45" display="https://github.com/xuhan961228/xuhan2.git"/>
+    <hyperlink ref="C27" r:id="rId46" display="https://github.com/"/>
+    <hyperlink ref="E27" r:id="rId47" display="https://github.com/lanou123456/homeDemo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>董加丰</t>
+  </si>
+  <si>
+    <t>https://github.com/Dongjiafeng</t>
+  </si>
+  <si>
+    <t>https://github.com/Dongjiafeng/homework</t>
   </si>
   <si>
     <t>李晓楠</t>
@@ -286,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -344,14 +350,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -366,47 +364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,9 +381,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,6 +392,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,6 +439,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -493,187 +499,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,41 +778,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,20 +804,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,6 +849,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,145 +883,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1431,7 +1437,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1916,9 +1922,13 @@
       <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
@@ -1934,14 +1944,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1958,14 +1968,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -1980,14 +1990,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -2002,7 +2012,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2020,7 +2030,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2040,14 +2050,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2064,14 +2074,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2086,14 +2096,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2108,7 +2118,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2126,10 +2136,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2148,10 +2158,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2170,14 +2180,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2192,14 +2202,14 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
@@ -2214,14 +2224,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2236,7 +2246,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2411,6 +2421,8 @@
     <hyperlink ref="C36" r:id="rId43" display="https://github.com/joker-f"/>
     <hyperlink ref="C16" r:id="rId44" display="https://github.com/xuhan961228"/>
     <hyperlink ref="E16" r:id="rId45" display="https://github.com/xuhan961228/xuhan2.git"/>
+    <hyperlink ref="C23" r:id="rId46" display="https://github.com/Dongjiafeng"/>
+    <hyperlink ref="E23" r:id="rId47" display="https://github.com/Dongjiafeng/homework"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -70,18 +70,33 @@
     <t>李想</t>
   </si>
   <si>
+    <t>https://github.com/DmeoL</t>
+  </si>
+  <si>
+    <t>https://github.com/DmeoL/LXHomeWork</t>
+  </si>
+  <si>
     <t>组员</t>
   </si>
   <si>
     <t>牛宜生</t>
   </si>
   <si>
+    <t>https://github.com/OnTheRightWay</t>
+  </si>
+  <si>
     <t>https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject</t>
   </si>
   <si>
     <t>曾繁昌</t>
   </si>
   <si>
+    <t>https://github.com/zfc103489252</t>
+  </si>
+  <si>
+    <t>https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl</t>
+  </si>
+  <si>
     <t>熊志祥</t>
   </si>
   <si>
@@ -103,12 +118,21 @@
     <t>许寒</t>
   </si>
   <si>
+    <t>https://github.com/xuhan961228</t>
+  </si>
+  <si>
+    <t>https://github.com/xuhan961228/xuhan2.git</t>
+  </si>
+  <si>
     <t>杜大文</t>
   </si>
   <si>
     <t>https://github.com/Sole-Memory-ddw/Practice</t>
   </si>
   <si>
+    <t>https://github.com/Sole-Memory-ddw</t>
+  </si>
+  <si>
     <t>赖瑞</t>
   </si>
   <si>
@@ -163,9 +187,21 @@
     <t>陈朝雄</t>
   </si>
   <si>
+    <t>https://github.com/chenzhaoxiong</t>
+  </si>
+  <si>
+    <t>https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment</t>
+  </si>
+  <si>
     <t>徐超</t>
   </si>
   <si>
+    <t>https://github.com/bestbelief/</t>
+  </si>
+  <si>
+    <t>https://github.com/bestbelief/-</t>
+  </si>
+  <si>
     <t>胡凯</t>
   </si>
   <si>
@@ -175,6 +211,12 @@
     <t>杨潇</t>
   </si>
   <si>
+    <t>https://github.com/13207161778</t>
+  </si>
+  <si>
+    <t>https://github.com/13207161778/JBCC/tree/master/SE</t>
+  </si>
+  <si>
     <t>范文杰</t>
   </si>
   <si>
@@ -220,7 +262,19 @@
     <t>冯文</t>
   </si>
   <si>
+    <t>https://github.com/joker-f</t>
+  </si>
+  <si>
+    <t>https://github.com/joker-f/Bzt/tree/master/homework</t>
+  </si>
+  <si>
     <t>沈世伟</t>
+  </si>
+  <si>
+    <t>https://github.com/shen-shi-wei</t>
+  </si>
+  <si>
+    <t>https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE</t>
   </si>
   <si>
     <t>陈宏港</t>
@@ -234,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -292,8 +346,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,9 +425,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,67 +440,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,15 +462,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +496,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -466,19 +544,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,18 +640,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,42 +658,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,42 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +775,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,10 +814,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -777,47 +872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -826,10 +880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,133 +892,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,12 +1092,15 @@
     <xf numFmtId="58" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,9 +1108,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1379,8 +1433,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:H38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1563,9 +1617,13 @@
       <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
@@ -1578,16 +1636,18 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -1601,11 +1661,15 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
@@ -1619,7 +1683,7 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1637,7 +1701,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1653,18 +1717,18 @@
       <c r="N13" s="30"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>24</v>
+      <c r="B14" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1678,10 +1742,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1699,11 +1763,15 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -1717,13 +1785,15 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -1737,14 +1807,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1757,18 +1827,18 @@
       <c r="N18" s="30"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>35</v>
+      <c r="B19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1782,17 +1852,17 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1807,14 +1877,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1829,7 +1899,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1847,7 +1917,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1863,22 +1933,22 @@
       <c r="N23" s="30"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>45</v>
+      <c r="B24" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="30"/>
@@ -1888,14 +1958,18 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
@@ -1909,11 +1983,15 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
@@ -1927,7 +2005,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1945,7 +2023,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1961,15 +2039,19 @@
       <c r="N28" s="30"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="B29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
@@ -1982,17 +2064,17 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="28" t="s">
-        <v>55</v>
+      <c r="E30" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2007,14 +2089,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="28" t="s">
-        <v>58</v>
+      <c r="E31" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2029,7 +2111,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2047,10 +2129,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2065,14 +2147,14 @@
       <c r="N33" s="30"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>63</v>
+      <c r="B34" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2088,17 +2170,17 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2113,11 +2195,15 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -2131,11 +2217,15 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
@@ -2149,12 +2239,12 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="18" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
@@ -2288,14 +2378,14 @@
     <hyperlink ref="C33" r:id="rId5" display="https://github.com/842884542"/>
     <hyperlink ref="C34" r:id="rId6" display="https://github.com/develope1989" tooltip="https://github.com/develope1989"/>
     <hyperlink ref="C30" r:id="rId7" display="https://github.com/veryhairy" tooltip="https://github.com/veryhairy"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://github.com/OnTheRightWay" tooltip="https://github.com/OnTheRightWay"/>
     <hyperlink ref="E31" r:id="rId9" display="https://github.com/wangtap/JaveS/tree/master/HomeWork"/>
     <hyperlink ref="C14" r:id="rId10" display="https://github.com/Nicetrylp"/>
     <hyperlink ref="E14" r:id="rId11" display="https://github.com/Nicetrylp/project"/>
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice" tooltip="https://github.com/Sole-Memory-ddw/Practice"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
     <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
@@ -2308,7 +2398,25 @@
     <hyperlink ref="C24" r:id="rId25" display="https://github.com/Big-Dick-Nan"/>
     <hyperlink ref="E18" r:id="rId26" display="https://github.com/Larry21gram/JavaSE_Code/tree/Larry/ProjectDemo/src"/>
     <hyperlink ref="C18" r:id="rId27" display="https://github.com/Larry21gram/JavaSE_Code"/>
-    <hyperlink ref="E38" r:id="rId28" display="https://github.com/chenhonggangNZ/quitWorkSpace/tree/master/Day16_URLConnection"/>
+    <hyperlink ref="C9" r:id="rId28" display="https://github.com/DmeoL"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://github.com/DmeoL/LXHomeWork"/>
+    <hyperlink ref="C29" r:id="rId30" display="https://github.com/13207161778"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://github.com/13207161778/JBCC/tree/master/SE"/>
+    <hyperlink ref="E10" r:id="rId32" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
+    <hyperlink ref="E11" r:id="rId33" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
+    <hyperlink ref="C11" r:id="rId34" display="https://github.com/zfc103489252"/>
+    <hyperlink ref="E26" r:id="rId35" display="https://github.com/bestbelief/-"/>
+    <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
+    <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
+    <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
+    <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
+    <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
+    <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
+    <hyperlink ref="E36" r:id="rId42" display="https://github.com/joker-f/Bzt/tree/master/homework"/>
+    <hyperlink ref="C36" r:id="rId43" display="https://github.com/joker-f"/>
+    <hyperlink ref="C16" r:id="rId44" display="https://github.com/xuhan961228"/>
+    <hyperlink ref="E16" r:id="rId45" display="https://github.com/xuhan961228/xuhan2.git"/>
+    <hyperlink ref="E38" r:id="rId46" display="https://github.com/chenhonggangNZ/quitWorkSpace/tree/master/Day16_URLConnection"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="19095" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,10 @@
     <t>杜大文</t>
   </si>
   <si>
-    <t>https://github.com/Sole-Memory-ddw/Practice</t>
-  </si>
-  <si>
     <t>https://github.com/Sole-Memory-ddw</t>
+  </si>
+  <si>
+    <t>https://github.com/Sole-Memory-ddw/Pracitce</t>
   </si>
   <si>
     <t>赖瑞</t>
@@ -289,9 +289,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -340,15 +340,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,9 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,14 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -400,16 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,9 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +428,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -455,21 +453,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,13 +496,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,169 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,17 +775,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,16 +794,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +825,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -839,39 +872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -880,149 +880,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,6 +1099,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,8 +1436,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1513,12 +1516,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -1533,12 +1536,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -1557,12 +1560,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -1581,12 +1584,12 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -1603,12 +1606,12 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="20" t="s">
@@ -1627,12 +1630,12 @@
       <c r="F9" s="15"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -1651,12 +1654,12 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
@@ -1673,12 +1676,12 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
@@ -1691,12 +1694,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
@@ -1709,12 +1712,12 @@
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="25" t="s">
@@ -1733,12 +1736,12 @@
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1753,12 +1756,12 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
@@ -1775,12 +1778,12 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
@@ -1791,18 +1794,18 @@
         <v>37</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
@@ -1819,12 +1822,12 @@
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="25" t="s">
@@ -1843,12 +1846,12 @@
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
@@ -1867,12 +1870,12 @@
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
@@ -1889,12 +1892,12 @@
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
@@ -1907,12 +1910,12 @@
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
@@ -1925,12 +1928,12 @@
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="25" t="s">
@@ -1943,18 +1946,18 @@
         <v>54</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
@@ -1973,12 +1976,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
@@ -1995,12 +1998,12 @@
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
@@ -2013,12 +2016,12 @@
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
@@ -2031,12 +2034,12 @@
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="25" t="s">
@@ -2055,12 +2058,12 @@
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
@@ -2079,12 +2082,12 @@
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
@@ -2101,12 +2104,12 @@
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
@@ -2119,12 +2122,12 @@
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
@@ -2139,12 +2142,12 @@
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="25" t="s">
@@ -2161,12 +2164,12 @@
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
@@ -2185,12 +2188,12 @@
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
@@ -2207,12 +2210,12 @@
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
@@ -2229,12 +2232,12 @@
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
@@ -2249,12 +2252,12 @@
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -2385,7 +2388,7 @@
     <hyperlink ref="E30" r:id="rId12" display="https://github.com/veryhairy/HomeWork"/>
     <hyperlink ref="E19" r:id="rId13" display="https://github.com/ammzsthl/zhengkui"/>
     <hyperlink ref="E7" r:id="rId14" display="https://github.com/learnen/HomeWork/tree/master/HomeWork"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw/Practice" tooltip="https://github.com/Sole-Memory-ddw/Practice"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/Sole-Memory-ddw" tooltip="https://github.com/Sole-Memory-ddw"/>
     <hyperlink ref="C8" r:id="rId16" display="https://github.com/FineDreams/JavaStudy/tree/master/WeekHomeWork"/>
     <hyperlink ref="E6" r:id="rId17" display="https://github.com/NotTwoChen/Java-StudyData/tree/master/Day16_LittleProject"/>
     <hyperlink ref="C20" r:id="rId18" display="https://github.com/xianyuchunlai"/>
@@ -2409,7 +2412,7 @@
     <hyperlink ref="C26" r:id="rId36" display="https://github.com/bestbelief/"/>
     <hyperlink ref="E25" r:id="rId37" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
     <hyperlink ref="C25" r:id="rId38" display="https://github.com/chenzhaoxiong"/>
-    <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
+    <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw/Pracitce" tooltip="https://github.com/Sole-Memory-ddw/Pracitce"/>
     <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
     <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
     <hyperlink ref="E36" r:id="rId42" display="https://github.com/joker-f/Bzt/tree/master/homework"/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9630"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>https://github.com/develope1989</t>
+  </si>
+  <si>
+    <t>https://github.com/develope1989/GitHubJava</t>
   </si>
   <si>
     <t>刘鑫</t>
@@ -289,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -340,14 +343,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +388,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -390,9 +403,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,8 +426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,22 +449,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -453,23 +458,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,43 +499,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/